--- a/expense_for_tax_return.xlsx
+++ b/expense_for_tax_return.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\204027647\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\204027647\github\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8B8286-9FF1-4584-9651-8D95F6A3CCB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997CAE43-6073-420E-9CED-0BF4ECE3ED08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="610" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="285">
   <si>
     <t>Golf Club</t>
   </si>
@@ -926,6 +926,15 @@
   </si>
   <si>
     <t>Brevard School Foundation</t>
+  </si>
+  <si>
+    <t>water heater</t>
+  </si>
+  <si>
+    <t>1+1+1</t>
+  </si>
+  <si>
+    <t>Edgewood</t>
   </si>
 </sst>
 </file>
@@ -1790,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A62" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView view="pageLayout" topLeftCell="A59" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2563,7 +2572,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A50" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3137,6 +3146,12 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60">
+        <v>875</v>
+      </c>
       <c r="C60" t="s">
         <v>276</v>
       </c>
@@ -3161,16 +3176,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="12.6328125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="25.6328125" customWidth="1"/>
@@ -3373,11 +3387,33 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22">
+        <v>350</v>
+      </c>
       <c r="C22" t="s">
         <v>238</v>
       </c>
       <c r="D22" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3387,10 +3423,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A100" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A101" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4231,7 +4267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>188</v>
       </c>
@@ -4239,20 +4275,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>89</v>
       </c>
       <c r="B98">
         <v>50</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>284</v>
+      </c>
+      <c r="D98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2020</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>185</v>
       </c>
@@ -4260,7 +4302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>244</v>
       </c>
@@ -4268,7 +4310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>274</v>
       </c>
@@ -4276,7 +4318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>189</v>
       </c>
@@ -4284,7 +4326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>279</v>
       </c>
@@ -4295,12 +4337,20 @@
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>281</v>
       </c>
       <c r="B105">
         <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>259</v>
+      </c>
+      <c r="B106">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4539,8 +4589,8 @@
       <c r="A2">
         <v>2020</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/expense_for_tax_return.xlsx
+++ b/expense_for_tax_return.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\204027647\github\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997CAE43-6073-420E-9CED-0BF4ECE3ED08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1F355A-90B7-40AF-B2BB-C39CBA99E989}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="610" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wickham Lakes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="292">
   <si>
     <t>Golf Club</t>
   </si>
@@ -931,10 +931,31 @@
     <t>water heater</t>
   </si>
   <si>
-    <t>1+1+1</t>
-  </si>
-  <si>
     <t>Edgewood</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>april &amp; may rent</t>
+  </si>
+  <si>
+    <t>90*12+60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biogreen </t>
+  </si>
+  <si>
+    <t>slug a bug</t>
+  </si>
+  <si>
+    <t>rat removal</t>
+  </si>
+  <si>
+    <t>1+1+1+2+2+5</t>
+  </si>
+  <si>
+    <t>microwave</t>
   </si>
 </sst>
 </file>
@@ -1797,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A59" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A65" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2464,6 +2485,9 @@
       <c r="E65" t="s">
         <v>120</v>
       </c>
+      <c r="F65">
+        <v>1306</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -2537,6 +2561,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>289</v>
+      </c>
       <c r="C74" t="s">
         <v>236</v>
       </c>
@@ -2545,11 +2572,46 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>291</v>
+      </c>
+      <c r="B75">
+        <v>355.73</v>
+      </c>
       <c r="C75" t="s">
         <v>237</v>
       </c>
       <c r="D75">
         <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>287</v>
+      </c>
+      <c r="D77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>288</v>
+      </c>
+      <c r="D78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2569,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A50" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3157,6 +3219,20 @@
       </c>
       <c r="D60" t="s">
         <v>277</v>
+      </c>
+      <c r="E60" t="s">
+        <v>285</v>
+      </c>
+      <c r="F60">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61">
+        <v>1215</v>
       </c>
     </row>
   </sheetData>
@@ -3176,10 +3252,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3399,6 +3475,12 @@
       <c r="D22" t="s">
         <v>278</v>
       </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22">
+        <v>707</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -3414,6 +3496,14 @@
       </c>
       <c r="B24">
         <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3425,8 +3515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A101" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView view="pageLayout" topLeftCell="A99" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4047,6 +4137,9 @@
       <c r="B72" t="s">
         <v>191</v>
       </c>
+      <c r="D72" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -4058,6 +4151,9 @@
       <c r="C73">
         <v>20</v>
       </c>
+      <c r="D73" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -4069,6 +4165,9 @@
       <c r="C74">
         <v>25</v>
       </c>
+      <c r="D74" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -4077,6 +4176,9 @@
       <c r="B75">
         <v>50</v>
       </c>
+      <c r="D75" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -4088,6 +4190,9 @@
       <c r="C76">
         <v>20</v>
       </c>
+      <c r="D76" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -4099,6 +4204,9 @@
       <c r="C77">
         <v>30</v>
       </c>
+      <c r="D77" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -4107,6 +4215,9 @@
       <c r="B78">
         <v>25</v>
       </c>
+      <c r="D78" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -4129,11 +4240,17 @@
       <c r="C80">
         <v>10</v>
       </c>
+      <c r="D80" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>251</v>
       </c>
+      <c r="C81" t="s">
+        <v>284</v>
+      </c>
       <c r="D81">
         <v>15</v>
       </c>
@@ -4142,6 +4259,9 @@
       <c r="A82" t="s">
         <v>244</v>
       </c>
+      <c r="C82" t="s">
+        <v>284</v>
+      </c>
       <c r="D82">
         <v>20</v>
       </c>
@@ -4150,6 +4270,9 @@
       <c r="A83" t="s">
         <v>255</v>
       </c>
+      <c r="C83" t="s">
+        <v>284</v>
+      </c>
       <c r="D83">
         <v>25</v>
       </c>
@@ -4158,6 +4281,9 @@
       <c r="A84" t="s">
         <v>181</v>
       </c>
+      <c r="C84" t="s">
+        <v>284</v>
+      </c>
       <c r="D84">
         <v>20</v>
       </c>
@@ -4166,6 +4292,9 @@
       <c r="A85" t="s">
         <v>258</v>
       </c>
+      <c r="C85" t="s">
+        <v>284</v>
+      </c>
       <c r="D85">
         <v>25</v>
       </c>
@@ -4177,6 +4306,9 @@
       <c r="B86">
         <v>100</v>
       </c>
+      <c r="C86" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -4185,6 +4317,9 @@
       <c r="B87">
         <v>62</v>
       </c>
+      <c r="C87" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -4193,6 +4328,9 @@
       <c r="B88">
         <v>15</v>
       </c>
+      <c r="C88" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -4201,6 +4339,9 @@
       <c r="B89">
         <v>20</v>
       </c>
+      <c r="C89" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -4212,6 +4353,9 @@
       <c r="C90">
         <v>25</v>
       </c>
+      <c r="D90" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -4220,6 +4364,9 @@
       <c r="B91">
         <v>20</v>
       </c>
+      <c r="D91" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -4228,6 +4375,9 @@
       <c r="B92">
         <v>36</v>
       </c>
+      <c r="D92" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -4239,6 +4389,9 @@
       <c r="C93">
         <v>25</v>
       </c>
+      <c r="D93" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -4250,6 +4403,9 @@
       <c r="C94">
         <v>25</v>
       </c>
+      <c r="D94" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -4258,6 +4414,9 @@
       <c r="B95">
         <v>20</v>
       </c>
+      <c r="D95" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -4266,6 +4425,9 @@
       <c r="B96">
         <v>15</v>
       </c>
+      <c r="D96" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
@@ -4274,6 +4436,9 @@
       <c r="B97">
         <v>50</v>
       </c>
+      <c r="D97" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -4283,7 +4448,7 @@
         <v>50</v>
       </c>
       <c r="C98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D98">
         <v>100</v>
@@ -4372,7 +4537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -4569,7 +4734,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4590,7 +4755,7 @@
         <v>2020</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
